--- a/flows/TLT_fund_flow_data.xlsx
+++ b/flows/TLT_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2525,6 +2525,96 @@
         <v>-1099.8116</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>-59.01476</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>16.79136</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>25.06776</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>306.09036</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>52.15398</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>-122.62726</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>-138.87984</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>-123.19524</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>492.1422</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/flows/TLT_fund_flow_data.xlsx
+++ b/flows/TLT_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B218"/>
+  <dimension ref="A1:B237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2615,6 +2615,196 @@
         <v>492.1422</v>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>340.8635</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>-465.98288</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>403.75397</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>44.85845</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>513.19037</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>-259.70197</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>-44.97735</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>190.04517</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>388.9522</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>9.0778</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>197.43504</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>-109.45584</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>712.7905</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>64.81341999999999</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>109.8048</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>-603.45935</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>212.84476</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>878.8872</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>-19.1693</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
